--- a/data/example_params_feedlot.xlsx
+++ b/data/example_params_feedlot.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annem\Documents\feedlot_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annem\Documents\fattening_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9FCF78-4806-48FF-962D-B167C7A74F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE40773-FAE8-41C0-802A-DDBECB532B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base_params" sheetId="1" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="2" r:id="rId2"/>
     <sheet name="daily_mort" sheetId="3" r:id="rId3"/>
     <sheet name="daily_gain" sheetId="4" r:id="rId4"/>
+    <sheet name="Notes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="75">
   <si>
     <t>parameter_name</t>
   </si>
@@ -197,6 +198,57 @@
   </si>
   <si>
     <t>rgamma(75000, shape = 900, rate = 122667)</t>
+  </si>
+  <si>
+    <t>Animal health expenditure (per kg biomass produced)</t>
+  </si>
+  <si>
+    <t>Feed conversion ratio</t>
+  </si>
+  <si>
+    <t>Individual weight at stocking (kg)</t>
+  </si>
+  <si>
+    <t>Cycle length in days</t>
+  </si>
+  <si>
+    <t>Dressing percentage (as a proportion of liveweight)</t>
+  </si>
+  <si>
+    <t>Number of cycles per year (per farm)</t>
+  </si>
+  <si>
+    <t>Rejection rate (antemortem + whole carcass, as a proportion)</t>
+  </si>
+  <si>
+    <t>Amount of health-related labour (personne.days per kg biomass produced)</t>
+  </si>
+  <si>
+    <t>Amount of non-health-related labour (personne.days per kg biomass produced)</t>
+  </si>
+  <si>
+    <t>Number of animals stocked</t>
+  </si>
+  <si>
+    <t>Production area used (in square meters)</t>
+  </si>
+  <si>
+    <t>daily_mort</t>
+  </si>
+  <si>
+    <t>Daily mortality rate, as a proportion of the population present. Can be the same for all production days or different. Provide one value per production day, as many rows as "cycle_length" for that scenario</t>
+  </si>
+  <si>
+    <t>daily_gain</t>
+  </si>
+  <si>
+    <t>Daily growth rate, as a proportion of the current liveweight. Can be the same for all production days or different. Provide one value per production day, as many rows as "cycle_length" for that scenario</t>
+  </si>
+  <si>
+    <t>explanations</t>
+  </si>
+  <si>
+    <t>Number stocked per production cycle, either for a single farm if analysis at farm-level, or total for the sector, if analysis for the whole sector</t>
   </si>
 </sst>
 </file>
@@ -534,7 +586,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,58 +691,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.65700000000000003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -698,8 +754,8 @@
       <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="F2">
-        <v>0.60299999999999998</v>
+      <c r="F2" t="s">
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0.60299999999999998</v>
@@ -710,42 +766,48 @@
       <c r="I2">
         <v>0.60299999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0.60299999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
@@ -768,13 +830,16 @@
       <c r="I4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -797,42 +862,48 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.57279999999999998</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.58520000000000005</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.57279999999999998</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.58520000000000005</v>
-      </c>
-      <c r="F6">
-        <v>0.57279999999999998</v>
       </c>
       <c r="G6">
         <v>0.57279999999999998</v>
       </c>
       <c r="H6">
-        <v>0.57640000000000002</v>
+        <v>0.57279999999999998</v>
       </c>
       <c r="I6">
         <v>0.57640000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.57640000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -855,45 +926,51 @@
       <c r="I7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>8.6630000000000002E-5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -901,8 +978,8 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1">
-        <v>2.97E-5</v>
+      <c r="F9" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="1">
         <v>2.97E-5</v>
@@ -913,13 +990,16 @@
       <c r="I9" s="1">
         <v>2.97E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>2.97E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
-      </c>
-      <c r="B10">
-        <v>7.7970000000000003E-4</v>
       </c>
       <c r="C10">
         <v>7.7970000000000003E-4</v>
@@ -942,13 +1022,16 @@
       <c r="I10">
         <v>7.7970000000000003E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>7.7970000000000003E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11">
-        <v>1200000</v>
       </c>
       <c r="C11">
         <v>1200000</v>
@@ -971,13 +1054,16 @@
       <c r="I11">
         <v>1200000</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -998,6 +1084,9 @@
         <v>38</v>
       </c>
       <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1011,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView topLeftCell="E28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
@@ -4859,7 +4948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:I132"/>
     </sheetView>
   </sheetViews>
@@ -8700,4 +8789,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03343A8-D296-4CF8-B5D0-5A1162D76986}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>